--- a/Atlas/Utilities/Doc/MENTORS observateurs mentorat 1 et 2 non certifiant.xlsx
+++ b/Atlas/Utilities/Doc/MENTORS observateurs mentorat 1 et 2 non certifiant.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd0cc559eed24d0d/Documents/CSO/02-OSEZ-VOUS-COACHING/PARTENARIATS/Coaching_WAYS/FFR/PAI 13D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C6EE5D86-6EE1-A440-A294-9518D17D3E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EFEDDA3-1449-7A4D-BC80-78DEC0B45283}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C6EE5D86-6EE1-A440-A294-9518D17D3E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02755C1C-C38D-024E-9DDF-0440F545F0D1}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{4D1667DB-9AF2-4613-95C7-D3266D301580}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19400" firstSheet="1" activeTab="1" xr2:uid="{4D1667DB-9AF2-4613-95C7-D3266D301580}"/>
   </bookViews>
   <sheets>
-    <sheet name="PAIs impairs" sheetId="3" r:id="rId1"/>
+    <sheet name="PAIs pairs" sheetId="1" r:id="rId1"/>
+    <sheet name="PAIs impairs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="131">
   <si>
     <t>LISTE DES MENTORS POUR MENTORAT INDIVIDUEL 1 et 2 non certifiant et M4 - 10/06/24</t>
   </si>
@@ -120,6 +121,18 @@
     <t>LYON -  AIX EN PROVENCE</t>
   </si>
   <si>
+    <t>DESBOIS CHANTAL</t>
+  </si>
+  <si>
+    <t>06 73 31 01 93</t>
+  </si>
+  <si>
+    <t>chantal@tandem-management.fr</t>
+  </si>
+  <si>
+    <t>LYON - NANTES</t>
+  </si>
+  <si>
     <t>DI FRANCISCA RAFFAELE</t>
   </si>
   <si>
@@ -156,6 +169,18 @@
     <t>mail avec portable du demandeur</t>
   </si>
   <si>
+    <t>FERRI MORGAN</t>
+  </si>
+  <si>
+    <t>06 75 00 34 39</t>
+  </si>
+  <si>
+    <t>morgan.n.ferri@gmail.com</t>
+  </si>
+  <si>
+    <t>AIX EN PROVENCE</t>
+  </si>
+  <si>
     <t>GOBIN ANNE</t>
   </si>
   <si>
@@ -240,6 +265,15 @@
     <t>tl.twenthy@orange.fr</t>
   </si>
   <si>
+    <t>LEVY NATHALIE</t>
+  </si>
+  <si>
+    <t>06 15 15 55 09</t>
+  </si>
+  <si>
+    <t>nath.levy@orange.fr</t>
+  </si>
+  <si>
     <t>MAZURIER BLANDINE</t>
   </si>
   <si>
@@ -271,6 +305,15 @@
   </si>
   <si>
     <t>LYON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PELTIER OLIVIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 13 49 16 58 </t>
+  </si>
+  <si>
+    <t>mop.coaching@gmail.com</t>
   </si>
   <si>
     <t>PERRON FREDERIC</t>
@@ -326,6 +369,18 @@
 </t>
   </si>
   <si>
+    <t>SOURIOUX CHRISTINE</t>
+  </si>
+  <si>
+    <t>07 86 38 06 90</t>
+  </si>
+  <si>
+    <t>christine@osez-vous-coaching.fr</t>
+  </si>
+  <si>
+    <t>LYON-TOULOUSE</t>
+  </si>
+  <si>
     <t>STOLLA ELA</t>
   </si>
   <si>
@@ -336,6 +391,27 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TABARD SANDRINE</t>
+  </si>
+  <si>
+    <t>06 11 05 72 48</t>
+  </si>
+  <si>
+    <t>santienkatoa@yahoo.fr</t>
+  </si>
+  <si>
+    <t>AIX-EN-PROVENCE</t>
+  </si>
+  <si>
+    <t>TANCHON HELENE</t>
+  </si>
+  <si>
+    <t>06 85 58 39 91</t>
+  </si>
+  <si>
+    <t>h.tanchon@kanyoconsulting.com</t>
   </si>
   <si>
     <t>TERNIK ISABELLE-EVA</t>
@@ -363,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +451,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -427,6 +510,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -486,12 +583,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,6 +611,19 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
@@ -579,9 +702,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,68 +718,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
@@ -674,61 +821,112 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -738,7 +936,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{B2495B4F-9CB6-40F7-B5B4-343DD496D5DB}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -772,6 +970,27 @@
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -785,11 +1004,24 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C83A83C1-99E4-4362-9AF5-BB87BF5B1C06}" name="Tableau1" displayName="Tableau1" ref="A3:E37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:E37" xr:uid="{1DACDD53-B119-4939-97ED-808659D1068C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E37">
+    <sortCondition ref="A3:A37"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0BF0794A-F8C2-4574-97F8-D2C340A226D3}" name="NOM PRENOM" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{40310633-3881-4BC3-9FF1-B69339D3D5AB}" name="COORDONNEES TEL" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6F24107C-6640-491E-86E6-8527E15B5FE9}" name="COORDONNEES MAIL" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{E1DB7EAD-6015-45EE-9ACF-73F8C215101D}" name="ZONE GEOGRAPHIQUE" dataDxfId="8" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="4" xr3:uid="{40B1EA2A-B735-400C-95C6-78AC2AA7B0AB}" name="PREFERENCES" dataDxfId="7" dataCellStyle="Lien hypertexte"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C344CF3-029E-41C9-8D9F-7C80507C4C41}" name="Tableau13" displayName="Tableau13" ref="A3:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A3:E30" xr:uid="{1DACDD53-B119-4939-97ED-808659D1068C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E30">
@@ -1102,6 +1334,634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC222A-0873-4100-AA5E-58E9A669B2CE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1">
+        <v>32474852702</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="H33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="53"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{AFDA8AF6-B728-4B9B-BCAF-686AF51AFFC4}"/>
+    <hyperlink ref="C23" r:id="rId2" display="mailto:bmazurier@gmail.com" xr:uid="{E8E12922-5046-493B-9EED-2CA240CF07FB}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{51C0D7FE-32B1-4E52-A801-463B4EACEC6A}"/>
+    <hyperlink ref="C21" r:id="rId4" display="mailto:tl.twenthy@orange.fr" xr:uid="{2BC3292E-C5F0-4D73-80EB-479935BB4D87}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{33D51B75-70FF-426D-AA03-39179C34F571}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{CF2C9643-49AB-4894-9096-6E518ACB799F}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{A1F91544-DBDA-4F36-A7C6-F5880188CE4C}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{5AC79B35-8FE9-4E72-926E-0D4326333A5D}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{6D765A91-16F9-49B7-8D9B-C705513F1F70}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{3BDF8C49-C9D5-4C9B-B5FB-6E015F3111BA}"/>
+    <hyperlink ref="C29" r:id="rId11" xr:uid="{24B08B6F-887F-480E-8C1D-8BAAB2687C52}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{63AEB1DC-0F92-4EB8-B514-9ECDC8F853E9}"/>
+    <hyperlink ref="C13" r:id="rId13" display="nadege.ferri@gmail.com" xr:uid="{1B4F8B58-C548-4D8C-90D6-176D901D1837}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{A8B4F23A-F69C-4E71-8919-CE09F990058D}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{347876FE-BD83-4F36-97A0-96FDB0DB98E8}"/>
+    <hyperlink ref="C32" r:id="rId16" xr:uid="{B35C5191-5535-4333-A17E-CB74A90AB577}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{83826519-EB49-4CF5-8F7B-1F9789E95585}"/>
+    <hyperlink ref="C4" r:id="rId18" xr:uid="{B9E8B628-095F-4BA8-8E8A-54A82F7C10C8}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{3B27A03D-9194-4E4E-87D7-8F1DCF03AD4D}"/>
+    <hyperlink ref="C20" r:id="rId20" xr:uid="{59FF5E19-3D2F-4362-BFAC-A78E67D1C22F}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{2E86F242-DF53-4628-BEE1-6FE02E1DB79C}"/>
+    <hyperlink ref="C34" r:id="rId22" xr:uid="{6BDACDD8-09C1-45E3-B844-217DDFDB1081}"/>
+    <hyperlink ref="C35" r:id="rId23" xr:uid="{9742AAEE-D071-4FC2-8D60-4622253E38E6}"/>
+    <hyperlink ref="C8" r:id="rId24" xr:uid="{E51DD702-AA1C-4264-9722-C47103B06201}"/>
+    <hyperlink ref="C9" r:id="rId25" xr:uid="{854719D9-240E-4CF5-8CFB-E59F51CE2EA4}"/>
+    <hyperlink ref="C26" r:id="rId26" xr:uid="{9A1D24EE-D13E-4593-B321-CD4BB26739C0}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{9C8D8AB2-14D9-42A3-8259-0A363DC9D77F}"/>
+    <hyperlink ref="C19" r:id="rId28" xr:uid="{180CA7E7-C80E-4F78-9B52-6186ED1E81EF}"/>
+    <hyperlink ref="C37" r:id="rId29" xr:uid="{265214C9-1825-4F94-8FA5-34504B0C8D82}"/>
+    <hyperlink ref="C25" r:id="rId30" xr:uid="{9AA2E073-AEAA-43B2-B415-F69395BD4FA6}"/>
+    <hyperlink ref="C36" r:id="rId31" xr:uid="{E942B9A8-8137-46FD-9CA6-57A3075208CF}"/>
+    <hyperlink ref="C17" r:id="rId32" xr:uid="{0FEC52F2-1D28-464C-A70B-9ACF0C57FA22}"/>
+    <hyperlink ref="C24" r:id="rId33" xr:uid="{CA9B3323-CB99-45AC-B2DC-B3F778852C12}"/>
+    <hyperlink ref="C31" r:id="rId34" xr:uid="{0689AA4F-81AE-492E-8664-C5436B5A61FE}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId35"/>
+  <tableParts count="1">
+    <tablePart r:id="rId36"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5C5E2B-1D54-46D4-AA50-55B72C3CF2E1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1122,13 +1982,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1152,341 +2012,341 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>105</v>
+        <v>128</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>130</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="A5" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>94</v>
+        <v>57</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1">
         <v>32474852702</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>90</v>
+      <c r="C8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>49</v>
+        <v>99</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="30"/>
+      <c r="A19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="16" t="s">
         <v>38</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1497,7 +2357,7 @@
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1505,7 +2365,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1515,7 +2375,7 @@
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1524,19 +2384,19 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="73"/>
     </row>
     <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -1545,30 +2405,30 @@
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1631,15 +2491,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001471F643574F5D429CF2A0612F48B69A" ma:contentTypeVersion="21" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4265548217bb7cb54a377e7b74c687ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d34a459-06a9-4078-b591-678ce7fe9767" xmlns:ns3="b39b948c-0d11-4a12-8a90-21cf579ca692" xmlns:ns4="b2c3fef4-c65d-4cb8-a44a-7bd49de16716" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="076071e0ead993e302a7e01b21173f73" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="5d34a459-06a9-4078-b591-678ce7fe9767"/>
@@ -1905,6 +2756,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEA08F49-CBC6-46DF-B430-22EFD0864FB2}">
   <ds:schemaRefs>
@@ -1918,14 +2778,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D7A7BD-0A54-4F27-8007-73D6FD2E64E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F14D406-9351-4146-A90D-F7F06A53EEC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1943,4 +2795,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D7A7BD-0A54-4F27-8007-73D6FD2E64E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>